--- a/tests/manual_evaluation/experiment_data_manual_articles_Analyst-B.xlsx
+++ b/tests/manual_evaluation/experiment_data_manual_articles_Analyst-B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/dananday_purdue_edu/Documents/Dharun HW/Grad_School/Research/Duality/Spring23/Manual Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/dananday_purdue_edu/Documents/Dharun HW/Grad_School/Research/Duality/Fall23/Manual Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:40009_{A110DCD6-C308-4CBB-8401-3C124FBF820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4909E770-460D-4F29-BC71-4A16B6378845}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1522EED1-05CA-472F-9B89-78CB835B90B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19620" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="263">
   <si>
     <t>Article ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Asus VH232H review: Asus VH232H - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2010/06/iphone-4-retina-display-suffering-from-discolored-blobs/</t>
+  </si>
+  <si>
     <t>IPhone 4 'Retina Display' Suffering from Discolored Blobs - WIRED</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Apple se disculpa y aclara el error del iPhone - BBC.com</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2010/09/voting-machine-database/</t>
+  </si>
+  <si>
     <t>Report: Voting Machine Errors Highlight Urgent Need for U.S. Database - WIRED</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>Dolphin HD browser snared in security breach - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2011/11/hackers-destroy-water-pump/</t>
+  </si>
+  <si>
     <t>H(ackers)2O: Attack on City Water Station Destroys Pump - WIRED</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>Chinese service adds 'Sent from my iPhone' for a fee - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2012/02/apple-foxconn-investigations/</t>
+  </si>
+  <si>
     <t>Apple's Foxconn Auditing Group 'Surrounded With Controversy,' Critics Say - WIRED</t>
   </si>
   <si>
@@ -163,9 +175,15 @@
     <t>'Girls Around Me' app withdrawn after concerns it made 'stalking women easy' - Daily Mail</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2012/04/ntsb-issues-new-safety-guidance-for-reno-air-races/</t>
+  </si>
+  <si>
     <t>NTSB Issues New Safety Guidance For Reno Air Races - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2012/05/spacex-launch-aborted-as-engine-ignition-begins/</t>
+  </si>
+  <si>
     <t>SpaceX Launch Aborted As Engine Ignition Begins - WIRED</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>Anonymous attacks Justice Dept., nabbing 1.7GB of data - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2012/05/spacex-nitrogen-purge-valve-abort/</t>
+  </si>
+  <si>
     <t>How One Faulty Nitrogen-Purge Valve Forced SpaceX to Abort - WIRED</t>
   </si>
   <si>
@@ -220,9 +241,15 @@
     <t>Amid troubleshooting, Curiosity computer swap under way - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2013/03/logic-bomb-south-korea-attack/</t>
+  </si>
+  <si>
     <t>Logic Bomb Set Off South Korea Cyberattack - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2013/04/texting-while-flying/</t>
+  </si>
+  <si>
     <t>In a First, Feds Blame Texting in Fatal Helicopter Crash - WIRED</t>
   </si>
   <si>
@@ -238,6 +265,9 @@
     <t>Top Wi-Fi routers easy to hack, says study - CNET</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2013/05/video-poker-hacking-dismissed/</t>
+  </si>
+  <si>
     <t>Feds Drop Hacking Charges in Video-Poker Glitching Case - WIRED</t>
   </si>
   <si>
@@ -337,18 +367,33 @@
     <t>In at the deep end, the baby who's barely a day old: Father introduces newborn son to joys of baby aquatics in - Daily Mail</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/03/researchers-uncover-way-hack-bios-undermine-secure-operating-systems/</t>
+  </si>
+  <si>
     <t>Hacking BIOS Chips Isn't Just the NSA's Domain Anymore - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/04/drug-pumps-security-flaw-lets-hackers-raise-dose-limits/</t>
+  </si>
+  <si>
     <t>Drug Pump's Security Flaw Lets Hackers Raise Dose Limits - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/06/hackers-can-send-fatal-doses-hospital-drug-pumps/</t>
+  </si>
+  <si>
     <t>Hacker Can Send Fatal Dose to Hospital Drug Pumps - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/07/fbi-spent-775k-hacking-teams-spy-tools-since-2011/</t>
+  </si>
+  <si>
     <t>The FBI Spent $775K on Hacking Team's Spy Tools Since 2011 - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/08/video-shows-terrifying-drug-infusion-pump-hack-action/</t>
+  </si>
+  <si>
     <t>Video Shows a Terrifying Drug Infusion Pump Hack in Action - WIRED</t>
   </si>
   <si>
@@ -376,6 +421,9 @@
     <t>Apple iOS 9.3: activation lock and web link crashes plague users - The Guardian</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2016/04/harvard-built-robot-teach-kids-code/</t>
+  </si>
+  <si>
     <t>Root Is a Little Robot on a Mission to Teach Kids to Code - WIRED</t>
   </si>
   <si>
@@ -439,9 +487,15 @@
     <t>QuiÃ©n es Margaret Hamilton, la ingeniera pionera de las misiones Apolo a la Luna que premiÃ³ Barack Obama - BBC.com</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2015/09/hack-brief-new-emergency-number-hack-easily-bypasses-android-lock-screens/</t>
+  </si>
+  <si>
     <t>Hack Brief: Emergency-Number Hack Bypasses Android Lock Screens - WIRED</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2010/12/breaking-gsm-with-a-15-phone-plus-smarts/</t>
+  </si>
+  <si>
     <t>Breaking GSM With a $15 Phone ... Plus Smarts - WIRED</t>
   </si>
   <si>
@@ -451,6 +505,9 @@
     <t>iPhone download setting doesn't stop downloads - and can cost users dear - The Guardian</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/https://www.wired.com/2011/12/supermarket-card-swipe-checkout-hack/</t>
+  </si>
+  <si>
     <t>Supermarket card-swipe checkout hack - WIRED</t>
   </si>
   <si>
@@ -538,6 +595,81 @@
     <t>Behaviour Option</t>
   </si>
   <si>
+    <t>2321, 2375</t>
+  </si>
+  <si>
+    <t>Iphone 4</t>
+  </si>
+  <si>
+    <t>Wrong formula for calculating signal bars</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Incorrect signal strength was shown</t>
+  </si>
+  <si>
+    <t>Correct formula to calculate signal strength</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Iphone users</t>
+  </si>
+  <si>
+    <t>Reviews from users, statement from company</t>
+  </si>
+  <si>
+    <t>Voting Machine</t>
+  </si>
+  <si>
+    <t>logic error</t>
+  </si>
+  <si>
+    <t>Company did not fix recurring problem</t>
+  </si>
+  <si>
+    <t>At least 1,000 votes in 9 county elections were dropped</t>
+  </si>
+  <si>
+    <t>Establish and maintain a publicly searchable database and to require voting machine vendors to report problems to the database</t>
+  </si>
+  <si>
+    <t>Premier Election Solutions</t>
+  </si>
+  <si>
+    <t>1,000 votes in 9 county elections</t>
+  </si>
+  <si>
+    <t>Android applications</t>
+  </si>
+  <si>
+    <t>A malware called "DroidDream"; privilege escalation attack</t>
+  </si>
+  <si>
+    <t>There is no charge or checks to putting apps on the Market</t>
+  </si>
+  <si>
+    <t>Can compromise personal data by taking over the user's device; steals nearly everything it can: product ID, model, partner (provider?), language, country, and userID; it has the ability to download more code - no way to know what the app does after it's installed, and the possibilities are nearly endless; send detailed information such as the phone's IMEI (International Mobile Equipment Identity) and IMSI (International Mobile Subscriber Identity)</t>
+  </si>
+  <si>
+    <t>Removed the apps from the Market</t>
+  </si>
+  <si>
+    <t>Developer Myournet; Apps on Android market</t>
+  </si>
+  <si>
+    <t>Apps on android market; Users of infected apps</t>
+  </si>
+  <si>
+    <t>Android police - a news site, Lookout - a security company, reddit user - lompolo</t>
+  </si>
+  <si>
+    <t>8870, 8964</t>
+  </si>
+  <si>
     <t>For Articles:</t>
   </si>
   <si>
@@ -698,70 +830,13 @@
   </si>
   <si>
     <t>Was the software failure due to a 'crash' (option 0) or 'omission' (option 1) or 'timing' (option 2) or 'value' (option 3) or 'Byzantine' fault (option 4) or 'unknown' (option -1)?</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2010/09/voting-machine-database/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2011/11/hackers-destroy-water-pump/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2012/02/apple-foxconn-investigations/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2012/04/ntsb-issues-new-safety-guidance-for-reno-air-races/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2012/05/spacex-launch-aborted-as-engine-ignition-begins/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2012/05/spacex-nitrogen-purge-valve-abort/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2013/03/logic-bomb-south-korea-attack/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2013/04/texting-while-flying/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2013/05/video-poker-hacking-dismissed/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/03/researchers-uncover-way-hack-bios-undermine-secure-operating-systems/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/04/drug-pumps-security-flaw-lets-hackers-raise-dose-limits/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/06/hackers-can-send-fatal-doses-hospital-drug-pumps/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/07/fbi-spent-775k-hacking-teams-spy-tools-since-2011/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/08/video-shows-terrifying-drug-infusion-pump-hack-action/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2016/04/harvard-built-robot-teach-kids-code/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2015/09/hack-brief-new-emergency-number-hack-easily-bypasses-android-lock-screens/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2010/12/breaking-gsm-with-a-15-phone-plus-smarts/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2011/12/supermarket-card-swipe-checkout-hack/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/https://www.wired.com/2010/06/iphone-4-retina-display-suffering-from-discolored-blobs/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,8 +979,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1091,8 +1172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1207,6 +1294,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1253,11 +1349,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1304,7 +1404,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1315,10 +1436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,19 +1737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="25.29296875" customWidth="1"/>
-    <col min="3" max="3" width="50.5859375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,11 +1769,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1353</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1666,43 +1783,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2140</v>
       </c>
-      <c r="B3" t="s">
-        <v>237</v>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2191</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2321</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1711,15 +1828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2375</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1731,15 +1848,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2819</v>
       </c>
-      <c r="B7" t="s">
-        <v>219</v>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1751,15 +1868,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4699</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1768,15 +1885,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4722</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1788,15 +1905,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8625</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1808,15 +1925,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8870</v>
       </c>
-      <c r="B11" t="s">
-        <v>220</v>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1828,15 +1945,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8964</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1848,57 +1965,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8987</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>9451</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>9915</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>10012</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1910,99 +2027,99 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>10167</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>10207</v>
       </c>
-      <c r="B18" t="s">
-        <v>221</v>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>10959</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>11216</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>11681</v>
       </c>
-      <c r="B21" t="s">
-        <v>222</v>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>11798</v>
       </c>
-      <c r="B22" t="s">
-        <v>223</v>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>12038</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2011,29 +2128,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>12053</v>
       </c>
-      <c r="B24" t="s">
-        <v>224</v>
+      <c r="B24" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>13033</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2042,15 +2159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>13247</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2062,43 +2179,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>13544</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>13747</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>15285</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2110,29 +2227,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>15577</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>17558</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2144,15 +2261,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>17638</v>
       </c>
-      <c r="B32" t="s">
-        <v>225</v>
+      <c r="B32" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2164,43 +2281,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>18017</v>
       </c>
-      <c r="B33" t="s">
-        <v>226</v>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>18077</v>
       </c>
-      <c r="B34" t="s">
-        <v>61</v>
+      <c r="B34" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>18168</v>
       </c>
-      <c r="B35" t="s">
-        <v>63</v>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2212,15 +2329,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>18941</v>
       </c>
-      <c r="B36" t="s">
-        <v>227</v>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2229,29 +2346,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>19677</v>
       </c>
-      <c r="B37" t="s">
-        <v>66</v>
+      <c r="B37" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>20857</v>
       </c>
-      <c r="B38" t="s">
-        <v>68</v>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2263,15 +2380,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>20931</v>
       </c>
-      <c r="B39" t="s">
-        <v>70</v>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2283,15 +2400,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>22120</v>
       </c>
-      <c r="B40" t="s">
-        <v>72</v>
+      <c r="B40" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2303,15 +2420,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>22254</v>
       </c>
-      <c r="B41" t="s">
-        <v>74</v>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2323,15 +2440,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>25033</v>
       </c>
-      <c r="B42" t="s">
-        <v>76</v>
+      <c r="B42" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -2343,15 +2460,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>25244</v>
       </c>
-      <c r="B43" t="s">
-        <v>78</v>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2363,43 +2480,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>25517</v>
       </c>
-      <c r="B44" t="s">
-        <v>80</v>
+      <c r="B44" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>25827</v>
       </c>
-      <c r="B45" t="s">
-        <v>82</v>
+      <c r="B45" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>26371</v>
       </c>
-      <c r="B46" t="s">
-        <v>84</v>
+      <c r="B46" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2411,15 +2528,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>26683</v>
       </c>
-      <c r="B47" t="s">
-        <v>86</v>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2431,15 +2548,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>27306</v>
       </c>
-      <c r="B48" t="s">
-        <v>88</v>
+      <c r="B48" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2451,15 +2568,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>27574</v>
       </c>
-      <c r="B49" t="s">
-        <v>90</v>
+      <c r="B49" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -2471,15 +2588,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>27800</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>92</v>
+      <c r="B50" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2491,15 +2608,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>28933</v>
       </c>
-      <c r="B51" t="s">
-        <v>94</v>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2511,29 +2628,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>30516</v>
       </c>
-      <c r="B52" t="s">
-        <v>96</v>
+      <c r="B52" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>34475</v>
       </c>
-      <c r="B53" t="s">
-        <v>228</v>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -2545,15 +2662,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>35057</v>
       </c>
-      <c r="B54" t="s">
-        <v>229</v>
+      <c r="B54" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2565,15 +2682,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>37117</v>
       </c>
-      <c r="B55" t="s">
-        <v>230</v>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2585,29 +2702,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>37993</v>
       </c>
-      <c r="B56" t="s">
-        <v>231</v>
+      <c r="B56" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>38894</v>
       </c>
-      <c r="B57" t="s">
-        <v>232</v>
+      <c r="B57" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -2616,15 +2733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>38919</v>
       </c>
-      <c r="B58" t="s">
-        <v>103</v>
+      <c r="B58" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2636,29 +2753,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>39478</v>
       </c>
-      <c r="B59" t="s">
-        <v>105</v>
+      <c r="B59" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>41561</v>
       </c>
-      <c r="B60" t="s">
-        <v>107</v>
+      <c r="B60" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2670,15 +2787,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>41986</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2690,29 +2807,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>43598</v>
       </c>
-      <c r="B62" t="s">
-        <v>233</v>
+      <c r="B62" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>44579</v>
       </c>
-      <c r="B63" t="s">
-        <v>112</v>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2721,15 +2838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>45689</v>
       </c>
-      <c r="B64" t="s">
-        <v>114</v>
+      <c r="B64" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2741,15 +2858,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>47393</v>
       </c>
-      <c r="B65" t="s">
-        <v>116</v>
+      <c r="B65" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2761,15 +2878,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>47715</v>
       </c>
-      <c r="B66" t="s">
-        <v>118</v>
+      <c r="B66" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -2781,15 +2898,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>47732</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -2801,15 +2918,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>47966</v>
       </c>
-      <c r="B68" t="s">
-        <v>122</v>
+      <c r="B68" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2821,15 +2938,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>47969</v>
       </c>
-      <c r="B69" t="s">
-        <v>124</v>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2841,29 +2958,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>48256</v>
       </c>
-      <c r="B70" t="s">
-        <v>126</v>
+      <c r="B70" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>49785</v>
       </c>
-      <c r="B71" t="s">
-        <v>128</v>
+      <c r="B71" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2875,29 +2992,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>49958</v>
       </c>
-      <c r="B72" t="s">
-        <v>130</v>
+      <c r="B72" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>51584</v>
       </c>
-      <c r="B73" t="s">
-        <v>234</v>
+      <c r="B73" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2909,15 +3026,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>54198</v>
       </c>
-      <c r="B74" t="s">
-        <v>235</v>
+      <c r="B74" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2929,15 +3046,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>54517</v>
       </c>
-      <c r="B75" t="s">
-        <v>134</v>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2949,15 +3066,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>54621</v>
       </c>
-      <c r="B76" t="s">
-        <v>236</v>
+      <c r="B76" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -2966,15 +3083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>57308</v>
       </c>
-      <c r="B77" t="s">
-        <v>137</v>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -2986,24 +3103,107 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>58283</v>
       </c>
-      <c r="B78" t="s">
-        <v>139</v>
+      <c r="B78" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
+      <sortCondition ref="A1:A78"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B78">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{872E7A30-31ED-4A95-AAA0-D917846BBBD6}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1199B6E3-EB9D-4DBB-9B52-BA037CCC4EA3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9ED758E9-6C84-4B10-B6C5-14FB420B342D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8C258152-9328-48CF-B5CA-82411AC339B1}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{DA3BEC2C-9D60-4841-A8CB-A33884ADAC0A}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{45E91E7A-B718-4BD4-BD65-7A2B04A24C50}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{449DD328-C0A1-4359-8BE2-0F40DA1FF67C}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{23C46DC9-0470-4131-A937-4A6897479AE0}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{11CA1283-7833-469B-B28E-617682BDD3DC}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{250A1CB6-399F-44DA-A742-073AC0A0B2FC}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{45B6089D-5A96-4F78-A109-3E4BA314C112}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{64A37B33-83C4-401B-B1C7-DCD7A068B4C6}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{3443CDC3-1026-4C4A-9C47-329937B08428}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{67B38C9C-8CCF-4665-AEDF-B303289BBE41}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{AE9B4A9E-023E-40EA-8932-6457C6088F03}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{60F012A8-A048-4343-9652-9DF7EEC3C284}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{78464348-6D4A-4734-A7E6-6F1CB94E64E9}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{6DF28F22-32A1-4FB1-8425-A994B96F8848}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{F3AB6E48-A6AE-4A54-9A51-719EE098F227}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{343D7DEF-B950-4F2E-8AA6-EAF3312DEF13}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{5992209D-4B50-4CC0-A44D-16F97B755AE7}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{F3741849-1B73-4C53-A629-42F5F60C7D48}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{72B5875D-64E0-4E1E-AA6E-09D3BF190364}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{3259DC36-DF52-4604-9B19-39D6B5629662}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{6BCAE3CD-B267-4E99-A285-4B7A000C3F71}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{8F44C55D-3E5E-44A3-9434-B2FE95317A7B}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{DAC6870F-AE3A-4E44-B304-46ADB1DEBB9E}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{07687835-AC8B-475D-85DF-D316DA0BB4FB}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{22348DBE-240D-4F56-918F-9AD19ECCAB75}"/>
+    <hyperlink ref="B32" r:id="rId29" xr:uid="{887A519C-CD4E-48F5-BB27-4AF4124C18D0}"/>
+    <hyperlink ref="B33" r:id="rId30" xr:uid="{8416D418-CC0D-4F63-8BDB-3566A69A4D96}"/>
+    <hyperlink ref="B34" r:id="rId31" xr:uid="{2C50F2A6-1C14-4001-93EC-0BC6CD9B44FA}"/>
+    <hyperlink ref="B42" r:id="rId32" xr:uid="{3DC67123-8C32-451F-9259-391BE12504DE}"/>
+    <hyperlink ref="B45" r:id="rId33" xr:uid="{477499E2-C2B1-426F-9827-A5D341F5EDB0}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{D8D91A95-6DD3-4952-8D23-045ED636A008}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{57E75A1C-8AAA-4713-A75C-B61C17FFA113}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{3D086CDB-B0E1-4CC5-931C-73128FE06A91}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{710237BC-8136-4ADE-9035-96C79AF23FE7}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{2C49B0CA-676E-49E6-9D9C-F57EC883C70F}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{BC972CE0-DCF6-4515-ADA0-B5DD449CBA36}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{A58F9496-31B8-4DDB-8910-E2FB8353017E}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{89EFA6C8-9DD3-4C84-BF6C-17CAFDC50893}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{F99B0478-2FFE-41B6-9372-6111298911CC}"/>
+    <hyperlink ref="B24" r:id="rId43" xr:uid="{51F5CA6A-4AB2-4B2B-ACF3-B462133842D4}"/>
+    <hyperlink ref="B30" r:id="rId44" xr:uid="{CC34E66A-C3A7-4B0E-85E2-6BE60D89435F}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{EE2813CD-A6F1-463E-9B79-E367AA8655DC}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{DDAC28D5-D2A1-487E-9763-5190F30132FB}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{A772BA61-30C8-4285-B0D0-D4E22896D627}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{5E600FFF-089F-4BEC-B60F-057ED3E02C3A}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{F61E0A46-0F3D-4DD6-980C-DA84B5801E4D}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{24C89163-03EE-4E86-BDD0-D64120449260}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{15DC3AAC-2B7C-40AF-BEC3-2E84239C438F}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{5B91B3DF-2484-4F39-8AD7-B8A35785C12C}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{8AD91AA3-8BD3-4B58-BB36-44A63A873888}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{E01F17E4-788D-476A-A9A8-BB15BB83EDE2}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{34AE9358-CFD9-4937-8B88-C8083004DC2E}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{67D80BBE-E0EB-4093-9881-2B413F2200BF}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{04CA2FCB-556B-4460-BE49-8A9C437AFCA9}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{46A0B052-650F-4000-B2A1-8953745D77FB}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{13071CA6-56CE-471E-8D98-E9BCE04B567C}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{04AD7F56-5D3E-4862-B19F-B1B30C540F8E}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{9818C3C9-03EE-477F-BE2E-7EC55E9DC866}"/>
+    <hyperlink ref="B65" r:id="rId62" xr:uid="{A03A288C-6636-4FBF-8B43-D5EAF9F4F128}"/>
+    <hyperlink ref="B66" r:id="rId63" xr:uid="{C805E353-AC21-41A1-867E-21CE3CE5B7D6}"/>
+    <hyperlink ref="B69" r:id="rId64" xr:uid="{AE040683-C16F-4359-82A7-F74BA1D14393}"/>
+    <hyperlink ref="B71" r:id="rId65" xr:uid="{8A4051F1-839B-4180-9E4B-A200A21C3EFC}"/>
+    <hyperlink ref="B72" r:id="rId66" xr:uid="{2974AF2C-0CED-4200-A17C-03D68678B77C}"/>
+    <hyperlink ref="B73" r:id="rId67" xr:uid="{748898DE-92C5-4775-A6EA-5377C974E531}"/>
+    <hyperlink ref="B74" r:id="rId68" xr:uid="{FCCCE48A-858E-46F1-AB0D-D7F0373ED29C}"/>
+    <hyperlink ref="B75" r:id="rId69" xr:uid="{E6A57EFD-E0B8-42C3-8303-902E2CD44D79}"/>
+    <hyperlink ref="B76" r:id="rId70" xr:uid="{FB680FE4-86C5-48F4-ABBF-801097CF810B}"/>
+    <hyperlink ref="B77" r:id="rId71" xr:uid="{F0ACCCC8-417A-4F9E-BC48-2A5D40E9BDE2}"/>
+    <hyperlink ref="B64" r:id="rId72" xr:uid="{FC4D40FA-E7BB-42F3-B881-D28089A85706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3011,93 +3211,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="S1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="V1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="W1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y1" t="s">
-        <v>164</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2">
+        <v>2010</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2819</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>2008</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4722</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>15285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>17638</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3105,239 +3554,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
